--- a/recipes/white/focaccia_90_breadcalc.xlsx
+++ b/recipes/white/focaccia_90_breadcalc.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>recipe name</t>
   </si>
@@ -167,6 +167,18 @@
   </si>
   <si>
     <t>proof</t>
+  </si>
+  <si>
+    <t>oven preheat</t>
+  </si>
+  <si>
+    <t>bake</t>
+  </si>
+  <si>
+    <t>cool</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
@@ -794,10 +806,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="28" x14ac:dyDescent="0"/>
@@ -808,15 +820,17 @@
     <col min="4" max="4" width="10.83203125" style="5"/>
     <col min="5" max="5" width="21.83203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="40.83203125" style="5" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="5"/>
+    <col min="7" max="10" width="10.83203125" style="5"/>
+    <col min="11" max="11" width="14.5" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:11">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -827,7 +841,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:11">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -838,7 +852,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:11">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -849,7 +863,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:11">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -861,15 +875,18 @@
         <v>480</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:11">
       <c r="A6" s="5">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -877,7 +894,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:11">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -885,27 +902,52 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="B10" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I10" s="5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="B11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J11" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="B12" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="K12" s="5">
+        <f>SUM(C2:J12)/60</f>
+        <v>13.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>12</v>
       </c>
